--- a/forms/millivisunartafla1.xlsx
+++ b/forms/millivisunartafla1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="14960" windowHeight="13440" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14955" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
   <si>
     <t>5. kafli</t>
   </si>
@@ -574,6 +574,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,9 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,7 +604,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,14 +920,14 @@
       <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="51" width="4" customWidth="1"/>
-    <col min="52" max="65" width="4.6640625" customWidth="1"/>
+    <col min="52" max="65" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -980,80 +980,80 @@
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="26" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="26" t="s">
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="26" t="s">
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="28"/>
-    </row>
-    <row r="5" spans="1:51">
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="29"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1063,27 +1063,27 @@
       <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
       <c r="R5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="24"/>
+      <c r="T5" s="25"/>
       <c r="U5" s="8" t="s">
         <v>43</v>
       </c>
@@ -1093,54 +1093,54 @@
       <c r="W5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24" t="s">
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24" t="s">
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24" t="s">
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="26"/>
       <c r="AP5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AQ5" s="24" t="s">
+      <c r="AQ5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
       <c r="AU5" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AV5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AW5" s="24" t="s">
+      <c r="AW5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="25"/>
-    </row>
-    <row r="6" spans="1:51" ht="26">
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="26"/>
+    </row>
+    <row r="6" spans="1:51" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
@@ -1271,7 +1271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="AX15" s="3"/>
       <c r="AY15" s="3"/>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="AX17" s="3"/>
       <c r="AY17" s="3"/>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="AX19" s="3"/>
       <c r="AY19" s="3"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AS22" t="s">
         <v>4</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -2128,22 +2128,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="4.6640625" customWidth="1"/>
-    <col min="19" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="139">
+    <row r="1" spans="1:25" ht="138" x14ac:dyDescent="0.25">
       <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
@@ -2209,8 +2209,8 @@
       </c>
       <c r="Y1" s="19"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -2242,8 +2242,8 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="22"/>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
         <v>24</v>
       </c>
@@ -2275,8 +2275,8 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="22"/>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="32"/>
       <c r="C4" s="15" t="s">
         <v>22</v>
@@ -2306,8 +2306,8 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="22"/>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
         <v>33</v>
@@ -2337,8 +2337,8 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="22"/>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
       <c r="B6" s="33"/>
       <c r="C6" s="15" t="s">
         <v>34</v>
@@ -2368,8 +2368,8 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="22"/>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -2403,8 +2403,8 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="22"/>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
       <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
@@ -2440,8 +2440,8 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="22"/>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
       <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
@@ -2471,9 +2471,9 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="22"/>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -2504,9 +2504,9 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="22"/>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="15" t="s">
         <v>32</v>
       </c>
@@ -2535,9 +2535,9 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="22"/>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2600,9 +2600,9 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="22"/>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="15" t="s">
         <v>36</v>
       </c>
@@ -2631,9 +2631,9 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="22"/>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
@@ -2668,9 +2668,9 @@
       </c>
       <c r="Y14" s="22"/>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2701,9 +2701,9 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="22"/>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="15" t="s">
         <v>39</v>
       </c>
@@ -2736,9 +2736,9 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="23"/>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
@@ -2769,8 +2769,8 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="23"/>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2840,9 +2840,9 @@
       </c>
       <c r="Y18" s="22"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -2877,9 +2877,9 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="22"/>
     </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="15" t="s">
         <v>46</v>
       </c>
@@ -2910,8 +2910,8 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="22"/>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
       <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
@@ -2941,8 +2941,8 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="22"/>
     </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
       <c r="B22" s="16" t="s">
         <v>44</v>
       </c>
@@ -2953,14 +2953,22 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="O22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2970,8 +2978,8 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="22"/>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -3005,20 +3013,20 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="22"/>
     </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="1"/>
@@ -3028,7 +3036,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="24" t="s">
         <v>20</v>
       </c>
       <c r="P24" s="1"/>
@@ -3042,9 +3050,9 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="22"/>
     </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="15" t="s">
         <v>53</v>
       </c>
@@ -3058,7 +3066,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="1"/>
@@ -3073,9 +3081,9 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="22"/>
     </row>
-    <row r="26" spans="1:25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="15" t="s">
         <v>54</v>
       </c>
@@ -3092,7 +3100,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="24" t="s">
         <v>20</v>
       </c>
       <c r="P26" s="1"/>
@@ -3106,9 +3114,9 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="22"/>
     </row>
-    <row r="27" spans="1:25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -3137,9 +3145,9 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="22"/>
     </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="15" t="s">
         <v>56</v>
       </c>
@@ -3166,9 +3174,9 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="22"/>
     </row>
-    <row r="29" spans="1:25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="15" t="s">
         <v>57</v>
       </c>
@@ -3195,9 +3203,9 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="22"/>
     </row>
-    <row r="30" spans="1:25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="15" t="s">
         <v>58</v>
       </c>
@@ -3224,9 +3232,9 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="22"/>
     </row>
-    <row r="31" spans="1:25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="15" t="s">
         <v>59</v>
       </c>
@@ -3253,9 +3261,9 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="22"/>
     </row>
-    <row r="32" spans="1:25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="15" t="s">
         <v>60</v>
       </c>
@@ -3282,9 +3290,9 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="22"/>
     </row>
-    <row r="33" spans="1:25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="15" t="s">
         <v>61</v>
       </c>
@@ -3311,9 +3319,9 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="22"/>
     </row>
-    <row r="34" spans="1:25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30" t="s">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -3348,9 +3356,9 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="22"/>
     </row>
-    <row r="35" spans="1:25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="15" t="s">
         <v>63</v>
       </c>
@@ -3383,9 +3391,9 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="22"/>
     </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="15" t="s">
         <v>64</v>
       </c>
@@ -3416,15 +3424,15 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="22"/>
     </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="20"/>
@@ -3453,9 +3461,9 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="22"/>
     </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="15" t="s">
         <v>66</v>
       </c>
@@ -3486,9 +3494,9 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="22"/>
     </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="15" t="s">
         <v>67</v>
       </c>
@@ -3519,9 +3527,9 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="22"/>
     </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="34"/>
       <c r="C40" s="15" t="s">
         <v>68</v>
       </c>
@@ -3554,12 +3562,14 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="22"/>
     </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="15" t="s">
-        <v>69</v>
-      </c>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="15"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -3571,26 +3581,32 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="O41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="22"/>
     </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="15"/>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3598,7 +3614,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3614,13 +3632,11 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="22"/>
     </row>
-    <row r="43" spans="1:25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
-        <v>71</v>
-      </c>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3629,14 +3645,14 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -3647,11 +3663,11 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="22"/>
     </row>
-    <row r="44" spans="1:25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3664,7 +3680,9 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="P44" s="4" t="s">
         <v>20</v>
       </c>
@@ -3678,11 +3696,11 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="22"/>
     </row>
-    <row r="45" spans="1:25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3695,8 +3713,12 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="O45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -3707,12 +3729,12 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="22"/>
     </row>
-    <row r="46" spans="1:25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="15" t="s">
-        <v>78</v>
-      </c>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="15"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3720,13 +3742,19 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="O46" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -3736,10 +3764,10 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="22"/>
     </row>
-    <row r="47" spans="1:25">
-      <c r="A47" s="29"/>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
       <c r="B47" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="1"/>
@@ -3749,34 +3777,32 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="V47" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="22"/>
     </row>
-    <row r="48" spans="1:25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="15"/>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3788,27 +3814,24 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="O48" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="22"/>
-    </row>
-    <row r="49" spans="1:25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30" t="s">
-        <v>74</v>
-      </c>
+      <c r="Y48" s="23"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3819,11 +3842,14 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -3832,13 +3858,13 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="23"/>
-    </row>
-    <row r="50" spans="1:25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
+      <c r="Y49" s="22"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3847,82 +3873,53 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
+      <c r="V50" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="22"/>
     </row>
-    <row r="51" spans="1:25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="22"/>
-    </row>
-    <row r="52" spans="1:25">
-      <c r="Q52" t="s">
+    <row r="51" spans="1:25" ht="409.6" x14ac:dyDescent="0">
+      <c r="Q51" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A23:A41"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3940,7 +3937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
